--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EED5047-21E8-497B-9F98-A4A18393202D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279EA4FD-8768-4B7D-B578-FC3FFE161261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenplan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Dokumentation und Präsentationsvorbereitung, Bilder, roter Faden, …</t>
+  </si>
+  <si>
+    <t>Wochenplan und GitHub Planung</t>
   </si>
 </sst>
 </file>
@@ -991,8 +994,8 @@
   </sheetPr>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:O46"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="8" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -1182,7 +1185,7 @@
       <c r="N8" s="34"/>
       <c r="O8" s="35"/>
       <c r="P8" s="36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q8" s="37"/>
       <c r="R8" s="7"/>
@@ -2039,7 +2042,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="70">
         <f>SUM(P8:Q46)</f>
-        <v>32</v>
+        <v>32.25</v>
       </c>
       <c r="Q47" s="70"/>
       <c r="R47" s="71"/>
@@ -2301,8 +2304,8 @@
   </sheetPr>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2405,9 @@
         <v>1</v>
       </c>
       <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -2410,7 +2415,9 @@
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="24">
+        <v>29</v>
+      </c>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="23" t="s">
@@ -2468,7 +2475,9 @@
       <c r="R7" s="32"/>
     </row>
     <row r="8" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="33" t="s">
+        <v>22</v>
+      </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -2483,7 +2492,9 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="35"/>
-      <c r="P8" s="36"/>
+      <c r="P8" s="36">
+        <v>0.5</v>
+      </c>
       <c r="Q8" s="37"/>
       <c r="R8" s="7"/>
     </row>
@@ -3275,7 +3286,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="70">
         <f>SUM(P7:R46)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q47" s="70"/>
       <c r="R47" s="71"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279EA4FD-8768-4B7D-B578-FC3FFE161261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855FA34A-11ED-4F9C-91AB-3E93D0680283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Wochenplan und GitHub Planung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation: 5.4 verfasst, </t>
   </si>
 </sst>
 </file>
@@ -995,7 +998,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:O8"/>
+      <selection activeCell="A9" sqref="A9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,7 +2308,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:O8"/>
+      <selection activeCell="A9" sqref="A9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2502,9 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855FA34A-11ED-4F9C-91AB-3E93D0680283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EFDB39-E0FC-4432-9420-6F6D73ABF10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -107,7 +107,13 @@
     <t>Wochenplan und GitHub Planung</t>
   </si>
   <si>
-    <t xml:space="preserve">Dokumentation: 5.4 verfasst, </t>
+    <t>Dokumentation: 5.4 verfasst, Programm: Säubern des Programmcodes</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 5: Planung, Recherche</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2314,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:O9"/>
+      <selection activeCell="A11" sqref="A11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2505,9 @@
         <v>0.5</v>
       </c>
       <c r="Q8" s="37"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
@@ -2519,12 +2527,18 @@
       <c r="M9" s="39"/>
       <c r="N9" s="39"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="41"/>
+      <c r="P9" s="41">
+        <v>0.75</v>
+      </c>
       <c r="Q9" s="42"/>
-      <c r="R9" s="8"/>
+      <c r="R9" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="33" t="s">
+        <v>25</v>
+      </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -2539,7 +2553,9 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="35"/>
-      <c r="P10" s="36"/>
+      <c r="P10" s="36">
+        <v>0.25</v>
+      </c>
       <c r="Q10" s="37"/>
       <c r="R10" s="7"/>
     </row>
@@ -3291,7 +3307,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="70">
         <f>SUM(P7:R46)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q47" s="70"/>
       <c r="R47" s="71"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EFDB39-E0FC-4432-9420-6F6D73ABF10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E7D06-6459-4BFE-A062-DDF36FD83810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   </sheetPr>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView showWhiteSpace="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:O9"/>
     </sheetView>
   </sheetViews>
@@ -2314,7 +2314,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:O11"/>
+      <selection activeCell="P10" sqref="P10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2554,7 @@
       <c r="N10" s="34"/>
       <c r="O10" s="35"/>
       <c r="P10" s="36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q10" s="37"/>
       <c r="R10" s="7"/>
@@ -3307,7 +3307,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="70">
         <f>SUM(P7:R46)</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q47" s="70"/>
       <c r="R47" s="71"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B6AC70-9D64-4C23-A4A4-372BCB9518C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBD7967-E81B-415B-92B1-368C1E691764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2317,7 +2317,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:Q11"/>
+      <selection activeCell="A11" sqref="A11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,7 +2560,9 @@
         <v>1</v>
       </c>
       <c r="Q10" s="21"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -2580,7 +2582,9 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="16"/>
+      <c r="P11" s="16">
+        <v>0.75</v>
+      </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="8"/>
     </row>
@@ -3312,7 +3316,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="22">
         <f>SUM(P7:R46)</f>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q47" s="22"/>
       <c r="R47" s="23"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBD7967-E81B-415B-92B1-368C1E691764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C881AD0-8052-4E61-AF55-7D90B4E6B2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2317,7 +2317,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:O11"/>
+      <selection activeCell="P11" sqref="P11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,7 +2583,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="40"/>
       <c r="P11" s="16">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="8"/>
@@ -3316,7 +3316,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="22">
         <f>SUM(P7:R46)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q47" s="22"/>
       <c r="R47" s="23"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C881AD0-8052-4E61-AF55-7D90B4E6B2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7160BB5-627C-4788-892E-3E47336E80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2317,7 +2317,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:Q11"/>
+      <selection activeCell="A12" sqref="A12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,10 +2583,12 @@
       <c r="N11" s="15"/>
       <c r="O11" s="40"/>
       <c r="P11" s="16">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" s="17"/>
-      <c r="R11" s="8"/>
+      <c r="R11" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -3316,7 +3318,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="22">
         <f>SUM(P7:R46)</f>
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q47" s="22"/>
       <c r="R47" s="23"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7160BB5-627C-4788-892E-3E47336E80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC85AD97-BA25-485E-BF3C-F90CF42A0996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
     <t>Projektabschnitt 5: Planung, Recherche</t>
   </si>
   <si>
-    <t>Python Website Tutorial Flask</t>
+    <t>Python Website Tutorial Flask, GitHub Readme.md</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2316,7 @@
   </sheetPr>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:O12"/>
     </sheetView>
   </sheetViews>
@@ -2583,7 +2583,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="40"/>
       <c r="P11" s="16">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="8" t="s">
@@ -3318,7 +3318,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="22">
         <f>SUM(P7:R46)</f>
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="22"/>
       <c r="R47" s="23"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0219DF52-B07F-46AA-9D8A-9071D8B579F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC05CA0F-5FE0-4943-914E-094B93449229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="3585" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2245,7 +2245,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18:Q18"/>
+      <selection activeCell="P17" sqref="P17:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,7 +2645,7 @@
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
       <c r="P17" s="22">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="7"/>
@@ -3256,7 +3256,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="24">
         <f>SUM(P7:R46)</f>
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="Q47" s="24"/>
       <c r="R47" s="25"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53534211-8D62-47C5-A1B4-AD33F682768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F62BB31-794B-415E-8AB1-FB7A3F8D92CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4275" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -122,7 +122,7 @@
     <t>Projektabschnitt 5: Testlauf Webseite, ersteinrichtung Webseite</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektabschnitt 5: Skizieren, </t>
+    <t>Projektabschnitt 5: Skizzieren, Implementieren</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -593,6 +593,10 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2248,7 +2252,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:O18"/>
+      <selection activeCell="A19" sqref="A19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,12 +2677,18 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
-      <c r="P18" s="43"/>
+      <c r="P18" s="43">
+        <v>1.25</v>
+      </c>
       <c r="Q18" s="44"/>
-      <c r="R18" s="11"/>
+      <c r="R18" s="56" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -2693,7 +2703,9 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
-      <c r="P19" s="38"/>
+      <c r="P19" s="38">
+        <v>1.5</v>
+      </c>
       <c r="Q19" s="39"/>
       <c r="R19" s="7"/>
     </row>
@@ -2735,7 +2747,7 @@
       <c r="O21" s="36"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="39"/>
-      <c r="R21" s="9"/>
+      <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -2775,7 +2787,7 @@
       <c r="O23" s="36"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
-      <c r="R23" s="9"/>
+      <c r="R23" s="14"/>
     </row>
     <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
@@ -2795,7 +2807,7 @@
       <c r="O24" s="49"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="44"/>
-      <c r="R24" s="10"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
@@ -3263,7 +3275,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="54">
         <f>SUM(P7:R46)</f>
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="Q47" s="54"/>
       <c r="R47" s="55"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE076D-32B5-4265-8154-47411C2E72DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC1CB04-993C-4C60-8BDA-096322056D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -125,7 +125,10 @@
     <t>Projektabschnitt 5: Skizzieren, Implementieren</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektabschnitt 5: Implementieren Website, </t>
+    <t>Projektabschnitt 5: Implementieren Website, login, registry</t>
+  </si>
+  <si>
+    <t>Wochenplan und GitHub</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2258,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:Q21"/>
+      <selection activeCell="A22" sqref="A22:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,13 +2736,17 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="19">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" s="20"/>
-      <c r="R20" s="8"/>
+      <c r="R20" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -2754,9 +2761,13 @@
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="23"/>
+      <c r="P21" s="23">
+        <v>0.5</v>
+      </c>
       <c r="Q21" s="24"/>
-      <c r="R21" s="14"/>
+      <c r="R21" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -3284,7 +3295,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="25">
         <f>SUM(P7:R46)</f>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05E22D7-FBCB-4EEC-9438-4DF638D2D58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D50926-4F33-43DA-A5DF-A9D2A5BD5D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -134,7 +134,10 @@
     <t>Projektabschnitt 5: Implementieren Aufgabenblatt (Formular)</t>
   </si>
   <si>
-    <t>Projektabschnitt 5: Verknüpfen</t>
+    <t>Projektabschnitt 5: Verknüpfen Webseite und Datenbank</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 5: Verknüpfen Webseite und DB, Recherche SQLite3/Flask</t>
   </si>
 </sst>
 </file>
@@ -2264,7 +2267,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29:Q29"/>
+      <selection activeCell="A30" sqref="A30:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,12 +2956,18 @@
       <c r="M29" s="42"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
-      <c r="P29" s="44"/>
+      <c r="P29" s="44">
+        <v>0.75</v>
+      </c>
       <c r="Q29" s="45"/>
-      <c r="R29" s="8"/>
+      <c r="R29" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="36" t="s">
+        <v>33</v>
+      </c>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -2973,7 +2982,9 @@
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
-      <c r="P30" s="39"/>
+      <c r="P30" s="39">
+        <v>0.5</v>
+      </c>
       <c r="Q30" s="40"/>
       <c r="R30" s="14"/>
     </row>
@@ -3321,7 +3332,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="55">
         <f>SUM(P7:R46)</f>
-        <v>16.5</v>
+        <v>17.75</v>
       </c>
       <c r="Q47" s="55"/>
       <c r="R47" s="56"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D50926-4F33-43DA-A5DF-A9D2A5BD5D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A264D1-24C5-4BB5-A2D8-7C9A81F9AE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2983,13 +2983,17 @@
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
       <c r="P30" s="39">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="Q30" s="40"/>
-      <c r="R30" s="14"/>
+      <c r="R30" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -3004,9 +3008,13 @@
       <c r="M31" s="42"/>
       <c r="N31" s="42"/>
       <c r="O31" s="42"/>
-      <c r="P31" s="44"/>
+      <c r="P31" s="44">
+        <v>0.5</v>
+      </c>
       <c r="Q31" s="45"/>
-      <c r="R31" s="8"/>
+      <c r="R31" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
@@ -3332,7 +3340,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="55">
         <f>SUM(P7:R46)</f>
-        <v>17.75</v>
+        <v>22</v>
       </c>
       <c r="Q47" s="55"/>
       <c r="R47" s="56"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A149F01-F776-4579-825D-44E20221AA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A9F62-AC95-4B30-B91E-69A7EE1543A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
     <t>Projektabschnitt 5: Verknüpfen Webseite und DB, Recherche SQLite3/Flask</t>
   </si>
   <si>
-    <t>Projektabschnitt 5: Verknüpfen Webseiten,</t>
+    <t>Projektabschnitt 5: Verknüpfen Webseiten, anmelden, registrieren</t>
   </si>
 </sst>
 </file>
@@ -3100,7 +3100,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
       <c r="P35" s="23">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q35" s="24"/>
       <c r="R35" s="7"/>
@@ -3347,7 +3347,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="25">
         <f>SUM(P7:R46)</f>
-        <v>22.25</v>
+        <v>24.25</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A9F62-AC95-4B30-B91E-69A7EE1543A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F65565-9E8E-471A-98D9-C1A15D072BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenplan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Projektabschnitt 5: Verknüpfen Webseiten, anmelden, registrieren</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 5: Home gestalten</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2273,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:O35"/>
+      <selection activeCell="P37" sqref="P37:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,10 +3106,14 @@
         <v>2.25</v>
       </c>
       <c r="Q35" s="24"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -3121,12 +3128,18 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
+      <c r="P36" s="19">
+        <v>1.5</v>
+      </c>
       <c r="Q36" s="20"/>
-      <c r="R36" s="8"/>
+      <c r="R36" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -3347,7 +3360,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="25">
         <f>SUM(P7:R46)</f>
-        <v>24.25</v>
+        <v>25.75</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C6806-B644-4A30-A0C8-A6C714FD12D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250C7C42-7B89-4CA6-A826-17CC0CBDF1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -140,10 +140,10 @@
     <t>Projektabschnitt 5: Verknüpfen Webseiten, anmelden, registrieren, Fehlersuche</t>
   </si>
   <si>
-    <t>Projektabschnitt 5: Home gestalten, zugriff regeln, Fehlersuche</t>
+    <t>Projektabschnitt 5: Verknüpfen Webseite und Datenbank, Fehlersuche</t>
   </si>
   <si>
-    <t>Projektabschnitt 5: Verknüpfen Webseite und Datenbank, Fehlersuche</t>
+    <t>Projektabschnitt 5: Home gestalten, zugriff regeln, Fehlersuche, informationen</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2273,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:O29"/>
+      <selection activeCell="A38" sqref="A38:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -3155,7 +3155,7 @@
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
       <c r="P37" s="39">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q37" s="40"/>
       <c r="R37" s="7" t="s">
@@ -3163,7 +3163,9 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
@@ -3178,9 +3180,13 @@
       <c r="M38" s="42"/>
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
-      <c r="P38" s="44"/>
+      <c r="P38" s="44">
+        <v>0.25</v>
+      </c>
       <c r="Q38" s="45"/>
-      <c r="R38" s="8"/>
+      <c r="R38" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="39" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
@@ -3364,7 +3370,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="55">
         <f>SUM(P7:R46)</f>
-        <v>27</v>
+        <v>28.5</v>
       </c>
       <c r="Q47" s="55"/>
       <c r="R47" s="56"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792E9AB1-5226-4E0D-88CD-00ED558B75AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959CE0F8-2AC4-4628-A39C-1D24B725F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3312,7 +3312,7 @@
       <c r="N44" s="28"/>
       <c r="O44" s="28"/>
       <c r="P44" s="23">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q44" s="24"/>
       <c r="R44" s="7"/>
@@ -3377,7 +3377,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="25">
         <f>SUM(P7:R46)</f>
-        <v>29</v>
+        <v>30.25</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959CE0F8-2AC4-4628-A39C-1D24B725F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2392E-EC00-4CE7-825F-47B316BEA562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2276,7 +2276,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44:Q44"/>
+      <selection activeCell="P45" sqref="P45:Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,7 +3318,9 @@
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -3333,7 +3335,9 @@
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
-      <c r="P45" s="19"/>
+      <c r="P45" s="19">
+        <v>0.5</v>
+      </c>
       <c r="Q45" s="20"/>
       <c r="R45" s="8"/>
     </row>
@@ -3377,7 +3381,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="25">
         <f>SUM(P7:R46)</f>
-        <v>30.25</v>
+        <v>30.75</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2392E-EC00-4CE7-825F-47B316BEA562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8291400-9FCC-4DCE-B635-627FE77E20EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2276,7 +2276,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45:Q45"/>
+      <selection activeCell="A45" sqref="A45:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,10 +3312,12 @@
       <c r="N44" s="28"/>
       <c r="O44" s="28"/>
       <c r="P44" s="23">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="24"/>
-      <c r="R44" s="7"/>
+      <c r="R44" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="45" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
@@ -3339,7 +3341,9 @@
         <v>0.5</v>
       </c>
       <c r="Q45" s="20"/>
-      <c r="R45" s="8"/>
+      <c r="R45" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -3381,7 +3385,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="25">
         <f>SUM(P7:R46)</f>
-        <v>30.75</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8291400-9FCC-4DCE-B635-627FE77E20EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EE5AE2-7B72-4F0D-B1F2-22D4FE8B17F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenplan" sheetId="4" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>Projektabschnitt 5: Home gestalten, zugriff regeln, Fehlersuche, informationen</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektabschnitt 5: Home informationen, </t>
+    <t>Projektabschnitt 5: Home informationen, Aufgabenblatt Formular bearbeiten</t>
   </si>
 </sst>
 </file>
@@ -2275,8 +2275,8 @@
   </sheetPr>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:O45"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,7 +2395,9 @@
         <v>3</v>
       </c>
       <c r="M5" s="54"/>
-      <c r="N5" s="56"/>
+      <c r="N5" s="56">
+        <v>44400</v>
+      </c>
       <c r="O5" s="55"/>
       <c r="P5" s="55"/>
       <c r="Q5" s="55"/>
